--- a/bh3/552732844707566621_2021-07-29_12-05-44.xlsx
+++ b/bh3/552732844707566621_2021-07-29_12-05-44.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5105013206</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-08 19:58:29</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44416.8322800926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>5018372791</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-31 14:54:50</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44408.62141203704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>5035164266</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-31 13:13:54</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44408.55131944444</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -765,10 +775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-30 07:23:28</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44407.30796296296</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>5023912012</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-30 00:23:38</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44407.01641203704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -903,10 +909,8 @@
           <t>5018299414</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:14:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44406.92677083334</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -974,10 +978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:32:18</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44406.81409722222</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1049,10 +1051,8 @@
           <t>5021341941</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:16:51</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44406.80336805555</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1120,10 +1120,8 @@
           <t>5021341577</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:16:42</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44406.80326388889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1191,10 +1189,8 @@
           <t>5021322895</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:15:06</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44406.80215277777</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1270,10 +1266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:49:43</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44406.78452546296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1342,10 +1336,8 @@
           <t>5021019465</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:39:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44406.7777662037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1417,10 +1409,8 @@
           <t>5020988924</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:36:29</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44406.77533564815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1484,10 +1474,8 @@
           <t>5020975554</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:33:49</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44406.7734837963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1563,10 +1551,8 @@
           <t>5020952446</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:32:02</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44406.77224537037</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1630,10 +1616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:13:42</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44406.75951388889</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1701,10 +1685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:12:48</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44406.75888888889</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1768,10 +1750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:07:57</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44406.75552083334</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1835,10 +1815,8 @@
           <t>5020732855</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-29 18:06:54</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44406.75479166667</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1914,10 +1892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:59:44</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44406.74981481482</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1981,10 +1957,8 @@
           <t>5020557856</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:46:02</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44406.74030092593</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2052,10 +2026,8 @@
           <t>5020441560</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:30:49</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44406.7297337963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2131,10 +2103,8 @@
           <t>5020412212</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:26:50</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44406.72696759259</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2210,10 +2180,8 @@
           <t>5018183776</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:23:59</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44406.72498842593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2289,10 +2257,8 @@
           <t>5020390209</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:23:25</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44406.72459490741</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2368,10 +2334,8 @@
           <t>5020382195</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:22:29</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44406.72394675926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2448,10 +2412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:22:23</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44406.72387731481</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2519,10 +2481,8 @@
           <t>5020318340</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:14:22</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44406.71831018518</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2599,10 +2559,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:12:04</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44406.71671296296</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2674,10 +2632,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:10:43</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44406.71577546297</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2745,10 +2701,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:07:15</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44406.71336805556</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2820,10 +2774,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-29 17:06:38</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44406.71293981482</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2895,10 +2847,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:59:24</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44406.70791666667</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2962,10 +2912,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:58:59</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44406.70762731481</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3033,10 +2981,8 @@
           <t>5018534390</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:52:14</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44406.70293981482</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3108,10 +3054,8 @@
           <t>5020082202</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:52:11</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44406.70290509259</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3187,10 +3131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:50:36</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44406.70180555555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3254,10 +3196,8 @@
           <t>5018992843</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:50:21</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44406.70163194444</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3329,10 +3269,8 @@
           <t>5018372791</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:47:20</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44406.69953703704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3400,10 +3338,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:42:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44406.69584490741</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3475,10 +3411,8 @@
           <t>5020082202</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:40:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44406.69508101852</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3542,10 +3476,8 @@
           <t>5020046515</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:36:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44406.69173611111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3613,10 +3545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:24:11</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44406.68346064815</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3680,10 +3610,8 @@
           <t>5019868455</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:13:30</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44406.67604166667</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3751,10 +3679,8 @@
           <t>5019868455</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:10:56</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44406.67425925926</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3822,10 +3748,8 @@
           <t>5019868455</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:08:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44406.67283564815</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -3893,10 +3817,8 @@
           <t>5019738526</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:08:04</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44406.67226851852</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3966,10 +3888,8 @@
           <t>5019796336</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-29 16:03:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44406.66918981481</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4037,10 +3957,8 @@
           <t>5019796336</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:57:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44406.66476851852</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4108,10 +4026,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:57:02</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44406.66460648148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4187,10 +4103,8 @@
           <t>5019763296</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:52:37</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44406.66153935185</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4266,10 +4180,8 @@
           <t>5019738526</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:50:48</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44406.66027777778</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4345,10 +4257,8 @@
           <t>5019738526</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:49:51</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44406.65961805556</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4416,10 +4326,8 @@
           <t>5019645424</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:49:16</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44406.65921296296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4487,10 +4395,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:49:01</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44406.65903935185</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4566,10 +4472,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:48:32</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44406.6587037037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4637,10 +4541,8 @@
           <t>5019741334</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:48:32</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44406.6587037037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4716,10 +4618,8 @@
           <t>5019738526</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:48:18</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44406.65854166666</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4795,10 +4695,8 @@
           <t>5019645424</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:48:17</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44406.65853009259</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4858,10 +4756,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:47:01</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44406.65765046296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4938,10 +4834,8 @@
           <t>5019645424</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:44:49</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44406.65612268518</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5009,10 +4903,8 @@
           <t>5018906374</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:39:26</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44406.65238425926</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5078,10 +4970,8 @@
           <t>5019645424</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:39:12</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44406.65222222222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5153,10 +5043,8 @@
           <t>5019645424</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:36:40</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44406.65046296296</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5224,10 +5112,8 @@
           <t>5019633757</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:33:59</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44406.64859953704</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5295,10 +5181,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:33:15</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44406.64809027778</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5366,10 +5250,8 @@
           <t>5019645424</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:48</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44406.64777777778</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5441,10 +5323,8 @@
           <t>5019633757</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:32:05</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44406.64728009259</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5508,10 +5388,8 @@
           <t>5019626417</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:29:51</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44406.64572916667</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5583,10 +5461,8 @@
           <t>5018255608</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:06:32</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44406.62953703704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5658,10 +5534,8 @@
           <t>5019435202</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:58:38</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44406.62405092592</v>
       </c>
       <c r="I72" t="n">
         <v>7</v>
@@ -5737,10 +5611,8 @@
           <t>5019405646</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:53:45</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44406.62065972222</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5812,10 +5684,8 @@
           <t>5019401280</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:53:39</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44406.62059027778</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5883,10 +5753,8 @@
           <t>5019348443</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:45:21</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44406.61482638889</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5954,10 +5822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:45:20</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44406.61481481481</v>
       </c>
       <c r="I76" t="n">
         <v>15</v>
@@ -6025,10 +5891,8 @@
           <t>5019290534</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:35:07</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44406.60771990741</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6106,10 +5970,8 @@
           <t>5019279379</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:26</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44406.60724537037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6177,10 +6039,8 @@
           <t>5019275125</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:32:30</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44406.60590277778</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6248,10 +6108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:35</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44406.60457175926</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6315,10 +6173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:30:31</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44406.60452546296</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -6386,10 +6242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:21:26</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44406.59821759259</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6461,10 +6315,8 @@
           <t>5019194900</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:21:10</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44406.5980324074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6532,10 +6384,8 @@
           <t>5019184842</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:20:36</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44406.59763888889</v>
       </c>
       <c r="I84" t="n">
         <v>6</v>
@@ -6603,10 +6453,8 @@
           <t>5019187352</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:52</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44406.59712962963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6678,10 +6526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:19:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44406.59709490741</v>
       </c>
       <c r="I86" t="n">
         <v>7</v>
@@ -6749,10 +6595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:29</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44406.59408564815</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6816,10 +6660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:28</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44406.59407407408</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6879,10 +6721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:21</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44406.59399305555</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -6949,10 +6789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:17</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44406.59394675926</v>
       </c>
       <c r="I90" t="n">
         <v>5</v>
@@ -7015,10 +6853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:11</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44406.59387731482</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7082,10 +6918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:15:08</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44406.59384259259</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7145,10 +6979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:13:31</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44406.59271990741</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7216,10 +7048,8 @@
           <t>5019131717</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:11:08</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44406.59106481481</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7283,10 +7113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:09:50</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44406.59016203704</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7350,10 +7178,8 @@
           <t>5018864915</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:07:06</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44406.58826388889</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7421,10 +7247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:04:49</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44406.58667824074</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7492,10 +7316,8 @@
           <t>5019075240</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:02:37</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44406.58515046296</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7563,10 +7385,8 @@
           <t>5019049240</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:59:44</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44406.58314814815</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7642,10 +7462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:57:46</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44406.5817824074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7713,10 +7531,8 @@
           <t>5018864915</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:52:54</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44406.57840277778</v>
       </c>
       <c r="I101" t="n">
         <v>4</v>
@@ -7776,10 +7592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:51:56</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44406.57773148148</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7855,10 +7669,8 @@
           <t>5018992843</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:51:09</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44406.5771875</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -7926,10 +7738,8 @@
           <t>5018912434</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:44:25</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44406.57251157407</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8001,10 +7811,8 @@
           <t>5018946147</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:44:23</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44406.57248842593</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8080,10 +7888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:43:54</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44406.57215277778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8147,10 +7953,8 @@
           <t>5018924057</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:42:02</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44406.57085648148</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8210,10 +8014,8 @@
           <t>5018912434</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:41:50</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44406.57071759259</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8278,10 +8080,8 @@
           <t>5018923049</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:41:35</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44406.57054398148</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8357,10 +8157,8 @@
           <t>5018912434</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:40:17</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44406.56964120371</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8432,10 +8230,8 @@
           <t>5018899158</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:38:57</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44406.56871527778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8507,10 +8303,8 @@
           <t>5018906374</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:38:42</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44406.56854166667</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -8578,10 +8372,8 @@
           <t>5018864915</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:34:01</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44406.56528935185</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8645,10 +8437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:33:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44406.56459490741</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8716,10 +8506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:31:56</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44406.56384259259</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8795,10 +8583,8 @@
           <t>5018227442</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:30:18</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44406.56270833333</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8874,10 +8660,8 @@
           <t>5018804893</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:26:19</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44406.55994212963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8959,10 +8743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:25:12</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44406.55916666667</v>
       </c>
       <c r="I118" t="n">
         <v>91</v>
@@ -9030,10 +8812,8 @@
           <t>5018802025</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:25:11</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44406.55915509259</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9109,10 +8889,8 @@
           <t>5018801580</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:25:00</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44406.55902777778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9184,10 +8962,8 @@
           <t>5018792939</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:23:57</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44406.55829861111</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9259,10 +9035,8 @@
           <t>5018797027</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:23:54</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44406.55826388889</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9338,10 +9112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:23:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44406.55765046296</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9417,10 +9189,8 @@
           <t>5018785660</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:22:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44406.55746527778</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9494,10 +9264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:22:02</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44406.55696759259</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9561,10 +9329,8 @@
           <t>5018772145</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:21:23</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44406.5565162037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9632,10 +9398,8 @@
           <t>5018771081</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:20:58</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44406.55622685186</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9703,10 +9467,8 @@
           <t>5018770872</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:20:53</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44406.55616898148</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9774,10 +9536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:18:09</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44406.55427083333</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9841,10 +9601,8 @@
           <t>5018529725</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:16:26</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44406.55307870371</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9916,10 +9674,8 @@
           <t>5018727187</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:15:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44406.55238425926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9987,10 +9743,8 @@
           <t>5018723833</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:14:28</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44406.55171296297</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10054,10 +9808,8 @@
           <t>5018722238</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:13:52</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44406.5512962963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10121,10 +9873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:13:35</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44406.55109953704</v>
       </c>
       <c r="I134" t="n">
         <v>7</v>
@@ -10192,10 +9942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:12:50</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44406.5505787037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10259,10 +10007,8 @@
           <t>5018529725</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:12:45</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44406.55052083333</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10334,10 +10080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:12:38</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44406.55043981481</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10415,10 +10159,8 @@
           <t>5018689410</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:10:20</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44406.54884259259</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10494,10 +10236,8 @@
           <t>5018683839</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:09:47</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44406.54846064815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10565,10 +10305,8 @@
           <t>5018631240</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:09:40</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44406.54837962963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10644,10 +10382,8 @@
           <t>5018298961</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:09:17</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44406.54811342592</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10723,10 +10459,8 @@
           <t>5018469299</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:09:03</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44406.54795138889</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10810,10 +10544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:08:19</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44406.54744212963</v>
       </c>
       <c r="I143" t="n">
         <v>28</v>
@@ -10881,10 +10613,8 @@
           <t>5018652501</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:05:06</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44406.54520833334</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10960,10 +10690,8 @@
           <t>5018631240</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:05:04</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44406.54518518518</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -11031,10 +10759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:04:16</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44406.54462962963</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11106,10 +10832,8 @@
           <t>5018434466</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:03:53</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44406.54436342593</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11177,10 +10901,8 @@
           <t>5018637480</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:03:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44406.54377314815</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11248,10 +10970,8 @@
           <t>5018631240</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:02:35</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44406.54346064815</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11327,10 +11047,8 @@
           <t>5018511050</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:01:56</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44406.54300925926</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11398,10 +11116,8 @@
           <t>5018404258</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:01:28</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44406.54268518519</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11465,10 +11181,8 @@
           <t>5018177317</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:00:45</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44406.5421875</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11532,10 +11246,8 @@
           <t>5018615568</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:00:17</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44406.54186342593</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11599,10 +11311,8 @@
           <t>5018597442</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:58:06</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44406.54034722222</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11678,10 +11388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:57:28</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44406.53990740741</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11754,10 +11462,8 @@
           <t>5018297234</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:56:21</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44406.53913194445</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11825,10 +11531,8 @@
           <t>5018577950</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:56:13</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44406.53903935185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11900,10 +11604,8 @@
           <t>5018568886</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:54:55</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44406.53813657408</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11963,10 +11665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:53:51</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44406.53739583334</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12030,10 +11730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:53:27</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44406.53711805555</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12109,10 +11807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:53:08</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44406.53689814815</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12188,10 +11884,8 @@
           <t>5018226114</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:53:01</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44406.53681712963</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12259,10 +11953,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:52:50</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44406.53668981481</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12330,10 +12022,8 @@
           <t>5018544597</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:52:04</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44406.5361574074</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12409,10 +12099,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:51:50</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44406.53599537037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12476,10 +12164,8 @@
           <t>5018534390</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:51:22</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44406.5356712963</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12555,10 +12241,8 @@
           <t>5018537740</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:50:55</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44406.5353587963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12630,10 +12314,8 @@
           <t>5018540263</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:50:21</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44406.53496527778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12701,10 +12383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:50:16</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44406.5349074074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12772,10 +12452,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:50:15</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44406.53489583333</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12843,10 +12521,8 @@
           <t>5018297234</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:50:14</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44406.53488425926</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12914,10 +12590,8 @@
           <t>5018529725</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:50:10</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44406.53483796296</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -12985,10 +12659,8 @@
           <t>5018535014</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:49:58</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44406.53469907407</v>
       </c>
       <c r="I173" t="n">
         <v>12</v>
@@ -13056,10 +12728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:49:27</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44406.53434027778</v>
       </c>
       <c r="I174" t="n">
         <v>10</v>
@@ -13135,10 +12805,8 @@
           <t>5018511050</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:49:18</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44406.53423611111</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13206,10 +12874,8 @@
           <t>5018526948</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:49:06</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44406.53409722223</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13281,10 +12947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:48:30</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44406.53368055556</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13360,10 +13024,8 @@
           <t>5018514784</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:48:10</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44406.53344907407</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13427,10 +13089,8 @@
           <t>5018509367</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:48:07</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44406.53341435185</v>
       </c>
       <c r="I179" t="n">
         <v>7</v>
@@ -13502,10 +13162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:47:47</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44406.53318287037</v>
       </c>
       <c r="I180" t="n">
         <v>6</v>
@@ -13573,10 +13231,8 @@
           <t>5018508099</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:47:38</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44406.5330787037</v>
       </c>
       <c r="I181" t="n">
         <v>5</v>
@@ -13640,10 +13296,8 @@
           <t>5018511050</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:46:56</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44406.53259259259</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13707,10 +13361,8 @@
           <t>5018501161</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:46:36</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44406.53236111111</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13782,10 +13434,8 @@
           <t>5018227442</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:45:25</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44406.53153935185</v>
       </c>
       <c r="I184" t="n">
         <v>7</v>
@@ -13861,10 +13511,8 @@
           <t>5018298961</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:45:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44406.53150462963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13932,10 +13580,8 @@
           <t>5018486747</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:45:00</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44406.53125</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14003,10 +13649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:44:09</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44406.53065972222</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14082,10 +13726,8 @@
           <t>5018298961</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:43:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44406.53026620371</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14155,10 +13797,8 @@
           <t>5018469299</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:42:57</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44406.52982638889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14228,10 +13868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:42:50</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44406.52974537037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14307,10 +13945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:42:26</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44406.52946759259</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14374,10 +14010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:41:29</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44406.52880787037</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14453,10 +14087,8 @@
           <t>5018455696</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:41:01</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44406.5284837963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14520,10 +14152,8 @@
           <t>5018434466</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:40:55</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44406.52841435185</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14591,10 +14221,8 @@
           <t>5018298961</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:40:55</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44406.52841435185</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14664,10 +14292,8 @@
           <t>5018281259</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:40:05</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44406.52783564815</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14743,10 +14369,8 @@
           <t>5018443046</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:40:03</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44406.5278125</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14814,10 +14438,8 @@
           <t>5018404258</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:39:54</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44406.52770833333</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14889,10 +14511,8 @@
           <t>5018434466</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:38:48</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44406.52694444444</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14968,10 +14588,8 @@
           <t>5018424238</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:38:00</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44406.52638888889</v>
       </c>
       <c r="I200" t="n">
         <v>8</v>
@@ -15047,10 +14665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:37:48</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44406.52625</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15122,10 +14738,8 @@
           <t>5018374791</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:37:47</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44406.52623842593</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15196,10 +14810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:37:41</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44406.52616898148</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15267,10 +14879,8 @@
           <t>5018423238</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:37:40</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44406.52615740741</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15342,10 +14952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:36:40</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44406.52546296296</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15421,10 +15029,8 @@
           <t>5018405566</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:35:49</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44406.52487268519</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15501,10 +15107,8 @@
           <t>5018407366</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:35:47</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44406.52484953704</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15572,10 +15176,8 @@
           <t>5018405566</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:35:42</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44406.52479166666</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15639,10 +15241,8 @@
           <t>5018405566</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:35:12</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44406.52444444445</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15719,10 +15319,8 @@
           <t>5018297234</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:35:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44406.52444444445</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15790,10 +15388,8 @@
           <t>5018404258</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:35:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44406.52444444445</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15869,10 +15465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:34:56</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44406.52425925926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15941,10 +15535,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:34:04</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44406.52365740741</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16020,10 +15612,8 @@
           <t>5018389734</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:33:34</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44406.52331018518</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16095,10 +15685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:32:20</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44406.52245370371</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16173,10 +15761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:32:15</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44406.52239583333</v>
       </c>
       <c r="I216" t="n">
         <v>95</v>
@@ -16244,10 +15830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:32:02</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44406.52224537037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16311,10 +15895,8 @@
           <t>5018374791</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:31:46</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44406.52206018518</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16382,10 +15964,8 @@
           <t>5018368731</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:31:13</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44406.52167824074</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16458,10 +16038,8 @@
           <t>5018372791</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:31:03</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44406.5215625</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16529,10 +16107,8 @@
           <t>5018364107</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:31:00</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44406.52152777778</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16600,10 +16176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:29:57</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44406.52079861111</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16679,10 +16253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:29:06</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44406.52020833334</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16758,10 +16330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:28:55</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44406.52008101852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16825,10 +16395,8 @@
           <t>5018227442</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:28:36</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44406.51986111111</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16902,10 +16470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:28:31</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44406.51980324074</v>
       </c>
       <c r="I226" t="n">
         <v>8</v>
@@ -16969,10 +16535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:28:18</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44406.51965277778</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17048,10 +16612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:28:16</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44406.51962962963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17127,10 +16689,8 @@
           <t>5018342489</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:27:29</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44406.51908564815</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17243,10 +16803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:27:19</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44406.51896990741</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17310,10 +16868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:27:10</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44406.51886574074</v>
       </c>
       <c r="I231" t="n">
         <v>6</v>
@@ -17381,10 +16937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:27:08</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44406.5188425926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17456,10 +17010,8 @@
           <t>5018336463</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:27:02</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44406.51877314815</v>
       </c>
       <c r="I233" t="n">
         <v>5</v>
@@ -17531,10 +17083,8 @@
           <t>5018324441</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:26:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44406.51824074074</v>
       </c>
       <c r="I234" t="n">
         <v>4</v>
@@ -17610,10 +17160,8 @@
           <t>5018331644</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:26:15</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44406.51822916666</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17689,10 +17237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:26:10</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44406.51817129629</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17760,10 +17306,8 @@
           <t>5018278271</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:25:20</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44406.51759259259</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17831,10 +17375,8 @@
           <t>5018308393</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:24:07</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44406.51674768519</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17906,10 +17448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:23:55</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44406.51660879629</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17977,10 +17517,8 @@
           <t>5018299414</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:23:05</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44406.51603009259</v>
       </c>
       <c r="I240" t="n">
         <v>8</v>
@@ -18048,10 +17586,8 @@
           <t>5018299000</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:22:56</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44406.51592592592</v>
       </c>
       <c r="I241" t="n">
         <v>22</v>
@@ -18123,10 +17659,8 @@
           <t>5018298961</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:22:55</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44406.51591435185</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18194,10 +17728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:22:54</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44406.51590277778</v>
       </c>
       <c r="I243" t="n">
         <v>42</v>
@@ -18274,10 +17806,8 @@
           <t>5018284279</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:22:37</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44406.51570601852</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18353,10 +17883,8 @@
           <t>5018297234</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:22:21</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44406.51552083333</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18420,10 +17948,8 @@
           <t>5018284279</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:21:28</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44406.51490740741</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18487,10 +18013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:20:28</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44406.51421296296</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18558,10 +18082,8 @@
           <t>5018278271</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:20:24</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44406.51416666667</v>
       </c>
       <c r="I248" t="n">
         <v>4</v>
@@ -18629,10 +18151,8 @@
           <t>5018227442</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:20:20</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44406.51412037037</v>
       </c>
       <c r="I249" t="n">
         <v>7</v>
@@ -18696,10 +18216,8 @@
           <t>5018281259</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:20:18</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44406.51409722222</v>
       </c>
       <c r="I250" t="n">
         <v>10</v>
@@ -18763,10 +18281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:20:02</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44406.51391203704</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18843,10 +18359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:19:38</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44406.51363425926</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18914,10 +18428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:19:36</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44406.51361111111</v>
       </c>
       <c r="I253" t="n">
         <v>8</v>
@@ -18981,10 +18493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:19:16</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44406.51337962963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19048,10 +18558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:18:53</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44406.51311342593</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19123,10 +18631,8 @@
           <t>5018267305</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:18:47</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44406.51304398148</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19190,10 +18696,8 @@
           <t>5018267276</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:18:46</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44406.51303240741</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19270,10 +18774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:18:46</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44406.51303240741</v>
       </c>
       <c r="I258" t="n">
         <v>6</v>
@@ -19341,10 +18843,8 @@
           <t>5018259153</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:53</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44406.51241898148</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19420,10 +18920,8 @@
           <t>5018177317</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:47</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44406.51234953704</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19491,10 +18989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:43</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44406.51230324074</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19562,10 +19058,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:38</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44406.51224537037</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19633,10 +19127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:35</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44406.51221064815</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19712,10 +19204,8 @@
           <t>5018254195</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:35</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44406.51221064815</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19796,10 +19286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:34</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44406.51219907407</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19867,10 +19355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:17</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44406.51200231481</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19946,10 +19432,8 @@
           <t>5018177317</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:17:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44406.51184027778</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20013,10 +19497,8 @@
           <t>5018248376</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:16:51</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44406.51170138889</v>
       </c>
       <c r="I268" t="n">
         <v>15</v>
@@ -20092,10 +19574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:16:41</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44406.51158564815</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20163,10 +19643,8 @@
           <t>5018255608</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:16:41</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44406.51158564815</v>
       </c>
       <c r="I270" t="n">
         <v>7</v>
@@ -20238,10 +19716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:16:27</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44406.51142361111</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20318,10 +19794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:16:18</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44406.51131944444</v>
       </c>
       <c r="I272" t="n">
         <v>24</v>
@@ -20385,10 +19859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:16:07</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44406.51119212963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20464,10 +19936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:15:48</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44406.51097222222</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20543,10 +20013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:15:37</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44406.51084490741</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20614,10 +20082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:15:14</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44406.5105787037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20681,10 +20147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:15:08</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44406.51050925926</v>
       </c>
       <c r="I277" t="n">
         <v>7</v>
@@ -20761,10 +20225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:15:02</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44406.51043981482</v>
       </c>
       <c r="I278" t="n">
         <v>368</v>
@@ -20832,10 +20294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:14:42</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44406.51020833333</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20899,10 +20359,8 @@
           <t>5018177317</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:14:19</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44406.50994212963</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20970,10 +20428,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:14:16</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44406.50990740741</v>
       </c>
       <c r="I281" t="n">
         <v>16</v>
@@ -21049,10 +20505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:14:15</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44406.50989583333</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21124,10 +20578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:14:00</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44406.50972222222</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21203,10 +20655,8 @@
           <t>5018227864</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:14:00</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44406.50972222222</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21270,10 +20720,8 @@
           <t>5018230410</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:56</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44406.50967592592</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21349,10 +20797,8 @@
           <t>5018227442</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:52</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44406.50962962963</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -21416,10 +20862,8 @@
           <t>5018226114</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:25</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44406.50931712963</v>
       </c>
       <c r="I287" t="n">
         <v>28</v>
@@ -21495,10 +20939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:17</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44406.50922453704</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21566,10 +21008,8 @@
           <t>5018225676</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:16</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44406.50921296296</v>
       </c>
       <c r="I289" t="n">
         <v>7</v>
@@ -21645,10 +21085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:12</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44406.50916666666</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21708,10 +21146,8 @@
           <t>5018218254</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:10</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44406.50914351852</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21787,10 +21223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:13:08</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44406.50912037037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21862,10 +21296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:41</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44406.50880787037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21933,10 +21365,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:39</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44406.50878472222</v>
       </c>
       <c r="I294" t="n">
         <v>45</v>
@@ -22000,10 +21430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:35</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44406.50873842592</v>
       </c>
       <c r="I295" t="n">
         <v>80</v>
@@ -22079,10 +21507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:35</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44406.50873842592</v>
       </c>
       <c r="I296" t="n">
         <v>175</v>
@@ -22161,10 +21587,8 @@
           <t>5018212858</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:20</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44406.50856481482</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22228,10 +21652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:20</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44406.50856481482</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -22299,10 +21721,8 @@
           <t>5018212580</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:14</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44406.50849537037</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22371,10 +21791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:12:03</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44406.50836805555</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22442,10 +21860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:11:48</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44406.50819444445</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22513,10 +21929,8 @@
           <t>5018208683</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:11:42</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44406.508125</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22592,10 +22006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:11:25</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44406.50792824074</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22667,10 +22079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:11:00</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44406.50763888889</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
@@ -22746,10 +22156,8 @@
           <t>5018198588</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:10:54</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44406.50756944445</v>
       </c>
       <c r="I305" t="n">
         <v>18</v>
@@ -22821,10 +22229,8 @@
           <t>5018197946</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:10:41</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44406.50741898148</v>
       </c>
       <c r="I306" t="n">
         <v>10</v>
@@ -22900,10 +22306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:10:39</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44406.50739583333</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22967,10 +22371,8 @@
           <t>5018197645</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:10:36</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44406.50736111111</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -23034,10 +22436,8 @@
           <t>5018194494</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:10:09</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44406.50704861111</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23105,10 +22505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:10:06</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44406.50701388889</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23172,10 +22570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:52</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44406.50685185185</v>
       </c>
       <c r="I311" t="n">
         <v>4</v>
@@ -23251,10 +22647,8 @@
           <t>5018195097</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:46</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44406.50678240741</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23326,10 +22720,8 @@
           <t>5018177317</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:37</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44406.50667824074</v>
       </c>
       <c r="I313" t="n">
         <v>4</v>
@@ -23405,10 +22797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:36</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44406.50666666667</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23484,10 +22874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:36</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44406.50666666667</v>
       </c>
       <c r="I315" t="n">
         <v>4</v>
@@ -23563,10 +22951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:36</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44406.50666666667</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23634,10 +23020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:32</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44406.50662037037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23701,10 +23085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:25</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44406.50653935185</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23772,10 +23154,8 @@
           <t>5018183776</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:19</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44406.50646990741</v>
       </c>
       <c r="I319" t="n">
         <v>23</v>
@@ -23847,10 +23227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:11</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44406.50637731481</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23918,10 +23296,8 @@
           <t>5018183332</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:11</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44406.50637731481</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23997,10 +23373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:06</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44406.50631944444</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24068,10 +23442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:09:05</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44406.50630787037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24139,10 +23511,8 @@
           <t>5018191000</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:50</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44406.50613425926</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24210,10 +23580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:34</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44406.50594907408</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -24289,10 +23657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:31</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44406.50591435185</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24358,10 +23724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:30</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44406.50590277778</v>
       </c>
       <c r="I327" t="n">
         <v>791</v>
@@ -24429,10 +23793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:27</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44406.50586805555</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24504,10 +23866,8 @@
           <t>5018174920</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:25</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44406.50584490741</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24579,10 +23939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:22</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44406.50581018518</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24654,10 +24012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44406.50574074074</v>
       </c>
       <c r="I331" t="n">
         <v>19</v>
@@ -24733,10 +24089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:15</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44406.50572916667</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24812,10 +24166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:08:12</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44406.50569444444</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24883,10 +24235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:48</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44406.50541666667</v>
       </c>
       <c r="I334" t="n">
         <v>243</v>
@@ -24958,10 +24308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:42</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44406.50534722222</v>
       </c>
       <c r="I335" t="n">
         <v>1228</v>
@@ -25033,10 +24381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:36</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44406.50527777777</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25104,10 +24450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:28</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44406.50518518518</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25183,10 +24527,8 @@
           <t>5018177317</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:26</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44406.50516203704</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25250,10 +24592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:20</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44406.50509259259</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25326,10 +24666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:15</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44406.50503472222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25397,10 +24735,8 @@
           <t>5018166966</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:08</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44406.5049537037</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25464,10 +24800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:06</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44406.50493055556</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25535,10 +24869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:05</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44406.50491898148</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25610,10 +24942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:04</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44406.5049074074</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25689,10 +25019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:07:00</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44406.50486111111</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25764,10 +25092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:58</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44406.50483796297</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25840,10 +25166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:55</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44406.50480324074</v>
       </c>
       <c r="I347" t="n">
         <v>10</v>
@@ -25911,10 +25235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:51</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44406.50475694444</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25990,10 +25312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:41</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44406.5046412037</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26065,10 +25385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:35</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44406.50457175926</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -26144,10 +25462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:32</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44406.50453703704</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26215,10 +25531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:31</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44406.50452546297</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26286,10 +25600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:26</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44406.50446759259</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26365,10 +25677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:24</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44406.50444444444</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26444,10 +25754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:21</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44406.50440972222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26519,10 +25827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:18</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44406.504375</v>
       </c>
       <c r="I356" t="n">
         <v>18</v>
@@ -26586,10 +25892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:15</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44406.50434027778</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26653,10 +25957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:08</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44406.50425925926</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26724,10 +26026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:05</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44406.50422453704</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26787,10 +26087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:06:03</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44406.50420138889</v>
       </c>
       <c r="I360" t="n">
         <v>406</v>
@@ -26858,10 +26156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:05:57</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44406.50413194444</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
